--- a/DbLayouts/L6-共同作業/CdBcm.xlsx
+++ b/DbLayouts/L6-共同作業/CdBcm.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505122E9-07FF-4A99-801C-386485AB5E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9708" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -379,18 +378,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UnitManager =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptManager =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistManager =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Y:啟用 , N:未啟用</t>
   </si>
   <si>
@@ -399,13 +386,61 @@
   </si>
   <si>
     <t>啟用記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitManager Asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptManager Asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistManager Asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitManager %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptManager %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistManager %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode %</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode %</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCode %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findDeptCode1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findDistCode1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findUnitCode1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -662,8 +697,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -754,23 +789,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -806,23 +824,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -998,10 +999,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1350,10 +1351,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>20</v>
@@ -1365,7 +1366,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1564,12 +1565,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1652,7 +1653,10 @@
         <v>73</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1660,7 +1664,10 @@
         <v>74</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1668,7 +1675,43 @@
         <v>75</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L6-共同作業/CdBcm.xlsx
+++ b/DbLayouts/L6-共同作業/CdBcm.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9708" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
@@ -159,9 +159,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>UnitItem</t>
-  </si>
-  <si>
     <t>NVARCHAR2</t>
   </si>
   <si>
@@ -434,6 +431,10 @@
   </si>
   <si>
     <t>findUnitCode1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitItem</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1002,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1024,7 @@
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>18</v>
@@ -1075,7 +1076,7 @@
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="12"/>
@@ -1088,7 +1089,7 @@
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="12"/>
@@ -1134,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>20</v>
@@ -1147,7 +1148,7 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1155,13 +1156,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E10" s="16">
         <v>20</v>
@@ -1176,10 +1177,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>20</v>
@@ -1189,7 +1190,7 @@
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1197,13 +1198,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="16">
         <v>20</v>
@@ -1216,10 +1217,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>20</v>
@@ -1229,7 +1230,7 @@
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1237,13 +1238,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="16">
         <v>20</v>
@@ -1256,10 +1257,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>20</v>
@@ -1275,10 +1276,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>20</v>
@@ -1294,10 +1295,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>20</v>
@@ -1313,10 +1314,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>20</v>
@@ -1332,10 +1333,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>20</v>
@@ -1351,10 +1352,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>78</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>20</v>
@@ -1366,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1374,13 +1375,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1393,10 +1394,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>20</v>
@@ -1414,13 +1415,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="D23" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -1433,10 +1434,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>20</v>
@@ -1568,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
@@ -1595,123 +1596,123 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
